--- a/medicine/Mort/Liste_des_tombes_du_cimetière_central_de_Vienne/Liste_des_tombes_du_cimetière_central_de_Vienne.xlsx
+++ b/medicine/Mort/Liste_des_tombes_du_cimetière_central_de_Vienne/Liste_des_tombes_du_cimetière_central_de_Vienne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_tombes_du_cimeti%C3%A8re_central_de_Vienne</t>
+          <t>Liste_des_tombes_du_cimetière_central_de_Vienne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La liste des tombes du cimetière central de Vienne donne un aperçu des différentes tombes consacrées au cimetière central de Vienne situé dans le 11e arrondissement de Vienne, Simmering.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_tombes_du_cimeti%C3%A8re_central_de_Vienne</t>
+          <t>Liste_des_tombes_du_cimetière_central_de_Vienne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -519,7 +533,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_des_tombes_du_cimeti%C3%A8re_central_de_Vienne</t>
+          <t>Liste_des_tombes_du_cimetière_central_de_Vienne</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -538,6 +552,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -545,7 +561,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_des_tombes_du_cimeti%C3%A8re_central_de_Vienne</t>
+          <t>Liste_des_tombes_du_cimetière_central_de_Vienne</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -565,8 +581,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Carré des présidents
-Dans le groupe 14C gisent aussi tous les présidents de la république d'Autriche depuis 1951
+          <t>Carré des présidents</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le groupe 14C gisent aussi tous les présidents de la république d'Autriche depuis 1951
 </t>
         </is>
       </c>
@@ -577,7 +598,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Liste_des_tombes_du_cimeti%C3%A8re_central_de_Vienne</t>
+          <t>Liste_des_tombes_du_cimetière_central_de_Vienne</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -595,7 +616,9 @@
           <t>Groupe 32A</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce „groupe des compositeurs“ héberge entre autres les tombes de Beethoven, Brahms, Schubert et de la dynastie Strauss, mais aussi de compositeurs moins reconnus. On y trouve aussi un monument commémoratif à Wolfgang Amadeus Mozart, qui repose au cimetière de Sankt Marxer.
 			Carl Ritter von Ghega.
@@ -617,7 +640,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Liste_des_tombes_du_cimeti%C3%A8re_central_de_Vienne</t>
+          <t>Liste_des_tombes_du_cimetière_central_de_Vienne</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -635,7 +658,9 @@
           <t>Groupe 32C</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans ce groupe on trouve entre autres un mémorial aux victimes l'expédition tragique de 1969 dans l'Himalaya, où ont péri cinq Autrichiens, toujours portés disparus.
 			Paul Hörbiger.
@@ -653,7 +678,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Liste_des_tombes_du_cimeti%C3%A8re_central_de_Vienne</t>
+          <t>Liste_des_tombes_du_cimetière_central_de_Vienne</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -671,7 +696,9 @@
           <t>Groupe 33G</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Ernst Jandl.
@@ -688,7 +715,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Liste_des_tombes_du_cimeti%C3%A8re_central_de_Vienne</t>
+          <t>Liste_des_tombes_du_cimetière_central_de_Vienne</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -706,7 +733,9 @@
           <t>Groupe 40</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce groupe est constitué en grande partie de personnalités décédées après 1969. La tombe la plus visitée est sans doute celle de Falco, célébrité de la pop-musique autrichienne décédé en 1998.
 </t>
@@ -719,7 +748,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Liste_des_tombes_du_cimeti%C3%A8re_central_de_Vienne</t>
+          <t>Liste_des_tombes_du_cimetière_central_de_Vienne</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -738,6 +767,8 @@
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,7 +776,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Liste_des_tombes_du_cimeti%C3%A8re_central_de_Vienne</t>
+          <t>Liste_des_tombes_du_cimetière_central_de_Vienne</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -764,6 +795,8 @@
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -771,7 +804,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Liste_des_tombes_du_cimeti%C3%A8re_central_de_Vienne</t>
+          <t>Liste_des_tombes_du_cimetière_central_de_Vienne</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -789,7 +822,9 @@
           <t>Littérature</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Werner T. Bauer: Wiener Friedhofsführer. Genaue Beschreibung sämtlicher Begräbnisstätten nebst einer Geschichte des Wiener Bestattungswesens. Falter Verlag, Vienne 2004,  (ISBN 3-85439-335-0)
 Robert S. Budig, Gertrude Enderle-Burcel, Peter Enderle: Wiener Zentralfriedhof. Ehrengräber auf dem Städtischen Friedhof. Compress Verl., Wien 1995, Norbert Jakob Schmidt Verlagsges. mbH, Vienne 2006.  (ISBN 3-900607-26-5)
